--- a/app/accounting/402000BE/Shop 2, 965 Bourke Street, Waterloo Back Up.xlsx
+++ b/app/accounting/402000BE/Shop 2, 965 Bourke Street, Waterloo Back Up.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\xero-asana-integration\app\accounting\402000BE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\00-Bridge Database\402000BE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927BF874-6B89-44AF-A67D-D790F379FBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF58F78D-643A-4C66-A1A0-FE7F6EDA9836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30975" yWindow="1485" windowWidth="21600" windowHeight="11505" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
+    <workbookView xWindow="21000" yWindow="8280" windowWidth="16200" windowHeight="7200" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
   </bookViews>
   <sheets>
     <sheet name="Fee Proposal" sheetId="11" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="190">
   <si>
     <t>Premium Consulting Engineers</t>
   </si>
@@ -529,7 +529,10 @@
     <t>Electrical and lighting systems</t>
   </si>
   <si>
-    <t>Power supply to mechanical, fire and hydraulic services including full services coordination</t>
+    <t>Power supply to mechanical, fire and hydraulic services including full services</t>
+  </si>
+  <si>
+    <t>coordination</t>
   </si>
   <si>
     <t>Internal lighting</t>
@@ -819,7 +822,7 @@
     <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -885,6 +888,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -892,6 +896,12 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -901,7 +911,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -917,34 +931,19 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1445,13 +1444,13 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:X215"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A131" zoomScale="160" zoomScaleNormal="85" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="F136" sqref="F136:G136"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScale="160" zoomScaleNormal="85" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="42" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="8" width="11.28515625" customWidth="1"/>
     <col min="9" max="9" width="4.7109375" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
@@ -1462,7 +1461,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="32" t="s">
         <v>139</v>
       </c>
       <c r="B1" t="s">
@@ -1471,10 +1470,10 @@
       <c r="G1" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="I1" s="51"/>
+      <c r="I1" s="49"/>
     </row>
     <row r="2" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -1485,12 +1484,12 @@
       <c r="G2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="58">
+      <c r="H2" s="56">
         <v>45350</v>
       </c>
-      <c r="I2" s="58"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
+      <c r="I2" s="56"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
       <c r="O2" s="19"/>
@@ -1519,7 +1518,7 @@
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
-      <c r="F4" s="37"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="19"/>
       <c r="H4" s="1"/>
       <c r="L4" s="14"/>
@@ -1529,7 +1528,7 @@
       <c r="P4" s="19"/>
     </row>
     <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="12" t="s">
         <v>146</v>
       </c>
       <c r="C5" s="14"/>
@@ -1546,17 +1545,17 @@
       <c r="P5" s="14"/>
     </row>
     <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
       <c r="K6" s="18"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -1581,28 +1580,28 @@
       <c r="P7" s="13"/>
     </row>
     <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
     </row>
     <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="52"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
@@ -1610,93 +1609,93 @@
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="56"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="54"/>
+      <c r="T9" s="54"/>
+      <c r="U9" s="54"/>
+      <c r="V9" s="54"/>
+      <c r="W9" s="54"/>
+      <c r="X9" s="54"/>
     </row>
     <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="57"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="55"/>
+      <c r="T11" s="55"/>
     </row>
     <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="52"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="57"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="55"/>
+      <c r="S12" s="55"/>
+      <c r="T12" s="55"/>
     </row>
     <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="52"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="57"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="55"/>
+      <c r="T13" s="55"/>
     </row>
     <row r="14" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="52"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="57"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="55"/>
+      <c r="S14" s="55"/>
+      <c r="T14" s="55"/>
     </row>
     <row r="15" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
@@ -1715,7 +1714,7 @@
       <c r="C16" s="4"/>
       <c r="E16" s="8"/>
       <c r="F16" s="26"/>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="30" t="s">
         <v>150</v>
       </c>
       <c r="H16" s="2" t="s">
@@ -1724,55 +1723,55 @@
       <c r="I16" s="21"/>
     </row>
     <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="51" t="s">
+      <c r="A17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
       <c r="M17" s="7"/>
     </row>
     <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="51" t="s">
+      <c r="A18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
       <c r="P18" s="23"/>
     </row>
     <row r="19" spans="1:16" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="51" t="s">
+      <c r="A19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
     </row>
     <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="13"/>
@@ -1793,7 +1792,7 @@
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
-      <c r="G21" s="29" t="s">
+      <c r="G21" s="30" t="s">
         <v>151</v>
       </c>
       <c r="H21" s="2" t="s">
@@ -1807,19 +1806,19 @@
       <c r="O21" s="17"/>
     </row>
     <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="51" t="s">
+      <c r="A22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
       <c r="M22" s="17"/>
@@ -1827,39 +1826,39 @@
       <c r="O22" s="17"/>
     </row>
     <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="51" t="s">
+      <c r="A23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
       <c r="P23" s="17"/>
     </row>
     <row r="24" spans="1:16" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="51" t="s">
+      <c r="A24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
       <c r="P24" s="17"/>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
+      <c r="A25" s="1"/>
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
@@ -1870,7 +1869,7 @@
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
-      <c r="G26" s="29" t="s">
+      <c r="G26" s="30" t="s">
         <v>151</v>
       </c>
       <c r="H26" s="2" t="s">
@@ -1879,51 +1878,51 @@
       <c r="I26" s="17"/>
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="51" t="s">
+      <c r="A27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="51" t="s">
+      <c r="A28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
     </row>
     <row r="29" spans="1:16" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="55" t="s">
+      <c r="A29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
     </row>
     <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="13"/>
@@ -1949,52 +1948,52 @@
       <c r="I31" s="17"/>
     </row>
     <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="51" t="s">
+      <c r="A32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" s="51" t="s">
+      <c r="A33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="51"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" s="55" t="s">
+      <c r="A34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="38"/>
+      <c r="A35" s="1"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
@@ -2011,7 +2010,7 @@
       <c r="B36" s="2"/>
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="42" t="s">
+      <c r="A37" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2027,7 +2026,7 @@
       <c r="I39" s="13"/>
     </row>
     <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="44" t="s">
+      <c r="A40" s="38" t="s">
         <v>11</v>
       </c>
       <c r="B40" s="13"/>
@@ -2040,37 +2039,37 @@
       <c r="I40" s="13"/>
     </row>
     <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="42" t="s">
+      <c r="A41" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="42" t="s">
+      <c r="A42" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="42" t="s">
+      <c r="A43" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:13" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="30" t="s">
+      <c r="A44" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="30"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="33"/>
     </row>
     <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="38" t="s">
+      <c r="A45" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B45" t="s">
@@ -2080,7 +2079,7 @@
       <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="38" t="s">
+      <c r="A46" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B46" t="s">
@@ -2093,7 +2092,7 @@
       <c r="I46" s="1"/>
     </row>
     <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="38" t="s">
+      <c r="A47" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B47" t="s">
@@ -2108,7 +2107,7 @@
       <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="38" t="s">
+      <c r="A48" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B48" t="s">
@@ -2124,7 +2123,7 @@
       <c r="K48" s="1"/>
     </row>
     <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="38" t="s">
+      <c r="A49" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B49" t="s">
@@ -2134,19 +2133,19 @@
     </row>
     <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" spans="1:9" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="30" t="s">
+      <c r="A51" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B51" s="31" t="s">
+      <c r="B51" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="30"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="33"/>
     </row>
     <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
@@ -2159,7 +2158,7 @@
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
-      <c r="I52" s="38"/>
+      <c r="I52" s="43"/>
     </row>
     <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="21" t="s">
@@ -2247,9 +2246,7 @@
       <c r="H59" s="5"/>
     </row>
     <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="21" t="s">
-        <v>1</v>
-      </c>
+      <c r="A60" s="21"/>
       <c r="B60" t="s">
         <v>161</v>
       </c>
@@ -2289,7 +2286,12 @@
       <c r="H62" s="5"/>
     </row>
     <row r="63" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="21"/>
+      <c r="A63" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
+        <v>164</v>
+      </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
@@ -2298,12 +2300,7 @@
       <c r="H63" s="5"/>
     </row>
     <row r="64" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>165</v>
-      </c>
+      <c r="A64" s="21"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -2313,9 +2310,9 @@
     </row>
     <row r="65" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A65" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B65" t="s">
+        <v>165</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>166</v>
       </c>
       <c r="C65" s="5"/>
@@ -2351,7 +2348,7 @@
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
-      <c r="I67" s="38"/>
+      <c r="I67" s="43"/>
     </row>
     <row r="68" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="21" t="s">
@@ -2396,32 +2393,32 @@
         <v>172</v>
       </c>
       <c r="C71" s="3"/>
-      <c r="I71" s="38"/>
+      <c r="I71" s="43"/>
     </row>
     <row r="72" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="21"/>
+      <c r="A72" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72" t="s">
+        <v>173</v>
+      </c>
       <c r="C72" s="3"/>
-      <c r="I72" s="38"/>
+      <c r="I72" s="43"/>
     </row>
     <row r="73" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>174</v>
-      </c>
+      <c r="A73" s="21"/>
       <c r="C73" s="3"/>
-      <c r="I73" s="38"/>
+      <c r="I73" s="43"/>
     </row>
     <row r="74" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A74" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B74" t="s">
+        <v>174</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>175</v>
       </c>
       <c r="C74" s="3"/>
-      <c r="I74" s="38"/>
+      <c r="I74" s="43"/>
     </row>
     <row r="75" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="21" t="s">
@@ -2451,7 +2448,12 @@
       <c r="Q76" s="1"/>
     </row>
     <row r="77" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="21"/>
+      <c r="A77" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B77" t="s">
+        <v>178</v>
+      </c>
       <c r="C77" s="20"/>
       <c r="D77" s="20"/>
       <c r="E77" s="20"/>
@@ -2521,10 +2523,10 @@
       <c r="H83" s="5"/>
     </row>
     <row r="84" spans="1:9" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="30" t="s">
+      <c r="A84" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B84" s="31" t="s">
+      <c r="B84" s="34" t="s">
         <v>113</v>
       </c>
       <c r="D84" s="16"/>
@@ -2532,13 +2534,13 @@
       <c r="F84" s="16"/>
       <c r="G84" s="16"/>
       <c r="H84" s="16"/>
-      <c r="I84" s="30"/>
+      <c r="I84" s="33"/>
     </row>
     <row r="85" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="30" t="s">
+      <c r="A85" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="B85" s="31" t="s">
+      <c r="B85" s="34" t="s">
         <v>123</v>
       </c>
       <c r="D85" s="16"/>
@@ -2546,69 +2548,69 @@
       <c r="F85" s="16"/>
       <c r="G85" s="16"/>
       <c r="H85" s="16"/>
-      <c r="I85" s="30"/>
+      <c r="I85" s="33"/>
     </row>
     <row r="86" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="30"/>
-      <c r="B86" s="52" t="s">
+      <c r="A86" s="33"/>
+      <c r="B86" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="C86" s="52"/>
-      <c r="D86" s="52"/>
-      <c r="E86" s="52"/>
-      <c r="F86" s="52"/>
-      <c r="G86" s="52"/>
-      <c r="H86" s="52"/>
-      <c r="I86" s="52"/>
+      <c r="C86" s="50"/>
+      <c r="D86" s="50"/>
+      <c r="E86" s="50"/>
+      <c r="F86" s="50"/>
+      <c r="G86" s="50"/>
+      <c r="H86" s="50"/>
+      <c r="I86" s="50"/>
     </row>
     <row r="87" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="30"/>
-      <c r="B87" s="52"/>
-      <c r="C87" s="52"/>
-      <c r="D87" s="52"/>
-      <c r="E87" s="52"/>
-      <c r="F87" s="52"/>
-      <c r="G87" s="52"/>
-      <c r="H87" s="52"/>
-      <c r="I87" s="52"/>
+      <c r="A87" s="33"/>
+      <c r="B87" s="50"/>
+      <c r="C87" s="50"/>
+      <c r="D87" s="50"/>
+      <c r="E87" s="50"/>
+      <c r="F87" s="50"/>
+      <c r="G87" s="50"/>
+      <c r="H87" s="50"/>
+      <c r="I87" s="50"/>
     </row>
     <row r="88" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="30"/>
-      <c r="B88" s="52"/>
-      <c r="C88" s="52"/>
-      <c r="D88" s="52"/>
-      <c r="E88" s="52"/>
-      <c r="F88" s="52"/>
-      <c r="G88" s="52"/>
-      <c r="H88" s="52"/>
-      <c r="I88" s="52"/>
+      <c r="A88" s="33"/>
+      <c r="B88" s="50"/>
+      <c r="C88" s="50"/>
+      <c r="D88" s="50"/>
+      <c r="E88" s="50"/>
+      <c r="F88" s="50"/>
+      <c r="G88" s="50"/>
+      <c r="H88" s="50"/>
+      <c r="I88" s="50"/>
     </row>
     <row r="89" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="30"/>
-      <c r="B89" s="52"/>
-      <c r="C89" s="52"/>
-      <c r="D89" s="52"/>
-      <c r="E89" s="52"/>
-      <c r="F89" s="52"/>
-      <c r="G89" s="52"/>
-      <c r="H89" s="52"/>
-      <c r="I89" s="52"/>
+      <c r="A89" s="33"/>
+      <c r="B89" s="50"/>
+      <c r="C89" s="50"/>
+      <c r="D89" s="50"/>
+      <c r="E89" s="50"/>
+      <c r="F89" s="50"/>
+      <c r="G89" s="50"/>
+      <c r="H89" s="50"/>
+      <c r="I89" s="50"/>
     </row>
     <row r="90" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="30"/>
-      <c r="B90" s="31"/>
+      <c r="A90" s="33"/>
+      <c r="B90" s="34"/>
       <c r="D90" s="16"/>
       <c r="E90" s="16"/>
       <c r="F90" s="16"/>
       <c r="G90" s="16"/>
       <c r="H90" s="16"/>
-      <c r="I90" s="30"/>
+      <c r="I90" s="33"/>
     </row>
     <row r="91" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="30">
+      <c r="A91" s="44">
         <v>3.2</v>
       </c>
-      <c r="B91" s="31" t="s">
+      <c r="B91" s="34" t="s">
         <v>125</v>
       </c>
       <c r="D91" s="16"/>
@@ -2616,34 +2618,34 @@
       <c r="F91" s="16"/>
       <c r="G91" s="16"/>
       <c r="H91" s="16"/>
-      <c r="I91" s="30"/>
+      <c r="I91" s="33"/>
     </row>
     <row r="92" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="30"/>
-      <c r="B92" s="52" t="s">
+      <c r="A92" s="33"/>
+      <c r="B92" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="C92" s="52"/>
-      <c r="D92" s="52"/>
-      <c r="E92" s="52"/>
-      <c r="F92" s="52"/>
-      <c r="G92" s="52"/>
-      <c r="H92" s="52"/>
-      <c r="I92" s="52"/>
+      <c r="C92" s="50"/>
+      <c r="D92" s="50"/>
+      <c r="E92" s="50"/>
+      <c r="F92" s="50"/>
+      <c r="G92" s="50"/>
+      <c r="H92" s="50"/>
+      <c r="I92" s="50"/>
     </row>
     <row r="93" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="30"/>
-      <c r="B93" s="52"/>
-      <c r="C93" s="52"/>
-      <c r="D93" s="52"/>
-      <c r="E93" s="52"/>
-      <c r="F93" s="52"/>
-      <c r="G93" s="52"/>
-      <c r="H93" s="52"/>
-      <c r="I93" s="52"/>
+      <c r="A93" s="33"/>
+      <c r="B93" s="50"/>
+      <c r="C93" s="50"/>
+      <c r="D93" s="50"/>
+      <c r="E93" s="50"/>
+      <c r="F93" s="50"/>
+      <c r="G93" s="50"/>
+      <c r="H93" s="50"/>
+      <c r="I93" s="50"/>
     </row>
     <row r="94" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="38" t="s">
+      <c r="A94" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B94" s="7" t="s">
@@ -2654,10 +2656,10 @@
       <c r="F94" s="16"/>
       <c r="G94" s="16"/>
       <c r="H94" s="16"/>
-      <c r="I94" s="30"/>
+      <c r="I94" s="33"/>
     </row>
     <row r="95" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="38" t="s">
+      <c r="A95" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B95" s="7" t="s">
@@ -2668,10 +2670,10 @@
       <c r="F95" s="16"/>
       <c r="G95" s="16"/>
       <c r="H95" s="16"/>
-      <c r="I95" s="30"/>
+      <c r="I95" s="33"/>
     </row>
     <row r="96" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="38" t="s">
+      <c r="A96" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B96" s="7" t="s">
@@ -2682,43 +2684,43 @@
       <c r="F96" s="16"/>
       <c r="G96" s="16"/>
       <c r="H96" s="16"/>
-      <c r="I96" s="30"/>
+      <c r="I96" s="33"/>
     </row>
     <row r="97" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="38"/>
+      <c r="A97" s="1"/>
       <c r="B97" s="7"/>
       <c r="D97" s="16"/>
       <c r="E97" s="16"/>
       <c r="F97" s="16"/>
       <c r="G97" s="16"/>
       <c r="H97" s="16"/>
-      <c r="I97" s="30"/>
+      <c r="I97" s="33"/>
     </row>
     <row r="98" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="38"/>
+      <c r="A98" s="1"/>
       <c r="B98" s="7"/>
       <c r="D98" s="16"/>
       <c r="E98" s="16"/>
       <c r="F98" s="16"/>
       <c r="G98" s="16"/>
       <c r="H98" s="16"/>
-      <c r="I98" s="30"/>
+      <c r="I98" s="33"/>
     </row>
     <row r="99" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="30"/>
-      <c r="B99" s="31"/>
+      <c r="A99" s="33"/>
+      <c r="B99" s="34"/>
       <c r="D99" s="16"/>
       <c r="E99" s="16"/>
       <c r="F99" s="16"/>
       <c r="G99" s="16"/>
       <c r="H99" s="16"/>
-      <c r="I99" s="30"/>
+      <c r="I99" s="33"/>
     </row>
     <row r="100" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="30">
+      <c r="A100" s="44">
         <v>3.3</v>
       </c>
-      <c r="B100" s="31" t="s">
+      <c r="B100" s="34" t="s">
         <v>126</v>
       </c>
       <c r="D100" s="16"/>
@@ -2726,28 +2728,28 @@
       <c r="F100" s="16"/>
       <c r="G100" s="16"/>
       <c r="H100" s="16"/>
-      <c r="I100" s="30"/>
+      <c r="I100" s="33"/>
     </row>
     <row r="101" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="30"/>
-      <c r="B101" s="54" t="s">
+      <c r="A101" s="44"/>
+      <c r="B101" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="C101" s="54"/>
-      <c r="D101" s="54"/>
-      <c r="E101" s="54"/>
-      <c r="F101" s="54"/>
-      <c r="G101" s="54"/>
-      <c r="H101" s="54"/>
-      <c r="I101" s="54"/>
-      <c r="Q101" s="31"/>
+      <c r="C101" s="52"/>
+      <c r="D101" s="52"/>
+      <c r="E101" s="52"/>
+      <c r="F101" s="52"/>
+      <c r="G101" s="52"/>
+      <c r="H101" s="52"/>
+      <c r="I101" s="52"/>
+      <c r="Q101" s="34"/>
     </row>
     <row r="102" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="38" t="s">
+      <c r="A102" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="9"/>
@@ -2756,11 +2758,11 @@
       <c r="Q102" s="10"/>
     </row>
     <row r="103" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="38" t="s">
+      <c r="A103" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="23"/>
@@ -2769,11 +2771,11 @@
       <c r="Q103" s="10"/>
     </row>
     <row r="104" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="38" t="s">
+      <c r="A104" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="23"/>
@@ -2783,11 +2785,11 @@
       <c r="R104" s="7"/>
     </row>
     <row r="105" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="38" t="s">
+      <c r="A105" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C105" s="12"/>
       <c r="D105" s="7"/>
@@ -2796,11 +2798,11 @@
       <c r="Q105" s="10"/>
     </row>
     <row r="106" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="38" t="s">
+      <c r="A106" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C106" s="12"/>
       <c r="D106" s="12"/>
@@ -2809,11 +2811,11 @@
       <c r="Q106" s="10"/>
     </row>
     <row r="107" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="38" t="s">
+      <c r="A107" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C107"/>
       <c r="D107"/>
@@ -2823,11 +2825,11 @@
       <c r="R107" s="7"/>
     </row>
     <row r="108" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="38" t="s">
+      <c r="A108" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C108"/>
       <c r="D108"/>
@@ -2836,20 +2838,20 @@
       <c r="Q108" s="10"/>
     </row>
     <row r="109" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="38" t="s">
+      <c r="A109" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q109" s="10"/>
     </row>
     <row r="110" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="38" t="s">
+      <c r="A110" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C110"/>
       <c r="D110"/>
@@ -2858,11 +2860,11 @@
       <c r="Q110" s="10"/>
     </row>
     <row r="111" spans="1:18" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="38" t="s">
+      <c r="A111" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C111"/>
       <c r="D111"/>
@@ -2881,10 +2883,10 @@
       <c r="P112" s="9"/>
     </row>
     <row r="113" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="30">
+      <c r="A113" s="44">
         <v>3.4</v>
       </c>
-      <c r="B113" s="31" t="s">
+      <c r="B113" s="34" t="s">
         <v>115</v>
       </c>
       <c r="M113" s="5" t="str">
@@ -2897,17 +2899,17 @@
       <c r="Q113" s="5"/>
     </row>
     <row r="114" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="30"/>
-      <c r="B114" s="51" t="s">
+      <c r="A114" s="44"/>
+      <c r="B114" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C114" s="51"/>
-      <c r="D114" s="51"/>
-      <c r="E114" s="51"/>
-      <c r="F114" s="51"/>
-      <c r="G114" s="51"/>
-      <c r="H114" s="51"/>
-      <c r="I114" s="51"/>
+      <c r="C114" s="49"/>
+      <c r="D114" s="49"/>
+      <c r="E114" s="49"/>
+      <c r="F114" s="49"/>
+      <c r="G114" s="49"/>
+      <c r="H114" s="49"/>
+      <c r="I114" s="49"/>
       <c r="M114" s="7"/>
       <c r="N114" s="23"/>
       <c r="O114" s="22"/>
@@ -2915,11 +2917,11 @@
       <c r="Q114" s="5"/>
     </row>
     <row r="115" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="30"/>
+      <c r="A115" s="44"/>
       <c r="B115" t="s">
         <v>9</v>
       </c>
-      <c r="E115" s="33" t="s">
+      <c r="E115" s="37" t="s">
         <v>116</v>
       </c>
       <c r="M115" s="12"/>
@@ -2929,7 +2931,7 @@
       <c r="Q115" s="5"/>
     </row>
     <row r="116" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="38"/>
+      <c r="A116" s="1"/>
       <c r="B116" t="s">
         <v>12</v>
       </c>
@@ -2941,7 +2943,7 @@
       <c r="Q116" s="5"/>
     </row>
     <row r="117" spans="1:17" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="38"/>
+      <c r="A117" s="1"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
       <c r="D117" s="16"/>
@@ -2957,10 +2959,10 @@
       <c r="Q117" s="5"/>
     </row>
     <row r="118" spans="1:17" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="30" t="s">
+      <c r="A118" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B118" s="31" t="s">
+      <c r="B118" s="34" t="s">
         <v>23</v>
       </c>
       <c r="D118" s="16"/>
@@ -2968,7 +2970,7 @@
       <c r="F118" s="16"/>
       <c r="G118" s="16"/>
       <c r="H118" s="16"/>
-      <c r="I118" s="30"/>
+      <c r="I118" s="33"/>
       <c r="M118"/>
       <c r="N118"/>
       <c r="O118" s="11"/>
@@ -2976,50 +2978,50 @@
     </row>
     <row r="119" spans="1:17" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="45"/>
-      <c r="B119" s="54" t="s">
+      <c r="B119" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="C119" s="54"/>
-      <c r="D119" s="54"/>
-      <c r="E119" s="54"/>
-      <c r="F119" s="54"/>
-      <c r="G119" s="54"/>
-      <c r="H119" s="54"/>
-      <c r="I119" s="54"/>
+      <c r="C119" s="52"/>
+      <c r="D119" s="52"/>
+      <c r="E119" s="52"/>
+      <c r="F119" s="52"/>
+      <c r="G119" s="52"/>
+      <c r="H119" s="52"/>
+      <c r="I119" s="52"/>
       <c r="M119"/>
       <c r="N119"/>
     </row>
     <row r="120" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="38"/>
-      <c r="B120" s="27" t="s">
+      <c r="A120" s="1"/>
+      <c r="B120" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C120" s="27"/>
-      <c r="D120" s="61" t="s">
+      <c r="C120" s="28"/>
+      <c r="D120" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="E120" s="61"/>
-      <c r="F120" s="61" t="s">
+      <c r="E120" s="59"/>
+      <c r="F120" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="G120" s="61"/>
+      <c r="G120" s="59"/>
       <c r="H120" s="9"/>
       <c r="Q120" s="5"/>
     </row>
     <row r="121" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="38"/>
-      <c r="B121" s="27" t="s">
+      <c r="A121" s="1"/>
+      <c r="B121" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C121" s="27"/>
-      <c r="D121" s="61" t="s">
+      <c r="C121" s="28"/>
+      <c r="D121" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="E121" s="61"/>
-      <c r="F121" s="62">
+      <c r="E121" s="59"/>
+      <c r="F121" s="60">
         <v>10000000</v>
       </c>
-      <c r="G121" s="62"/>
+      <c r="G121" s="60"/>
       <c r="H121" s="23"/>
       <c r="I121" s="7"/>
       <c r="M121" s="5"/>
@@ -3029,24 +3031,24 @@
       <c r="Q121" s="5"/>
     </row>
     <row r="122" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="38"/>
-      <c r="B122" s="27" t="s">
+      <c r="A122" s="1"/>
+      <c r="B122" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C122" s="27"/>
-      <c r="D122" s="61" t="s">
+      <c r="C122" s="28"/>
+      <c r="D122" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="E122" s="61"/>
-      <c r="F122" s="62">
+      <c r="E122" s="59"/>
+      <c r="F122" s="60">
         <v>20000000</v>
       </c>
-      <c r="G122" s="62"/>
+      <c r="G122" s="60"/>
       <c r="H122" s="23"/>
       <c r="M122" s="9"/>
     </row>
     <row r="123" spans="1:17" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="38"/>
+      <c r="A123" s="1"/>
       <c r="B123" s="12" t="s">
         <v>117</v>
       </c>
@@ -3059,7 +3061,7 @@
       <c r="M123" s="23"/>
     </row>
     <row r="124" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="38"/>
+      <c r="A124" s="1"/>
       <c r="B124" s="12"/>
       <c r="C124" s="12"/>
       <c r="D124" s="12"/>
@@ -3071,66 +3073,66 @@
       <c r="M124" s="23"/>
     </row>
     <row r="125" spans="1:17" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="30" t="s">
+      <c r="A125" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="B125" s="31" t="s">
+      <c r="B125" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C125" s="32"/>
-      <c r="I125" s="30"/>
+      <c r="C125" s="35"/>
+      <c r="I125" s="33"/>
       <c r="M125" s="22"/>
     </row>
     <row r="126" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="38"/>
-      <c r="B126" s="52" t="s">
+      <c r="A126" s="1"/>
+      <c r="B126" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="C126" s="52"/>
-      <c r="D126" s="52"/>
-      <c r="E126" s="52"/>
-      <c r="F126" s="52"/>
-      <c r="G126" s="52"/>
-      <c r="H126" s="52"/>
-      <c r="I126" s="52"/>
+      <c r="C126" s="50"/>
+      <c r="D126" s="50"/>
+      <c r="E126" s="50"/>
+      <c r="F126" s="50"/>
+      <c r="G126" s="50"/>
+      <c r="H126" s="50"/>
+      <c r="I126" s="50"/>
       <c r="M126" s="12"/>
     </row>
     <row r="127" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="38"/>
-      <c r="B127" s="52"/>
-      <c r="C127" s="52"/>
-      <c r="D127" s="52"/>
-      <c r="E127" s="52"/>
-      <c r="F127" s="52"/>
-      <c r="G127" s="52"/>
-      <c r="H127" s="52"/>
-      <c r="I127" s="52"/>
+      <c r="A127" s="1"/>
+      <c r="B127" s="50"/>
+      <c r="C127" s="50"/>
+      <c r="D127" s="50"/>
+      <c r="E127" s="50"/>
+      <c r="F127" s="50"/>
+      <c r="G127" s="50"/>
+      <c r="H127" s="50"/>
+      <c r="I127" s="50"/>
     </row>
     <row r="128" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="38"/>
-      <c r="B128" s="52"/>
-      <c r="C128" s="52"/>
-      <c r="D128" s="52"/>
-      <c r="E128" s="52"/>
-      <c r="F128" s="52"/>
-      <c r="G128" s="52"/>
-      <c r="H128" s="52"/>
-      <c r="I128" s="52"/>
+      <c r="A128" s="1"/>
+      <c r="B128" s="50"/>
+      <c r="C128" s="50"/>
+      <c r="D128" s="50"/>
+      <c r="E128" s="50"/>
+      <c r="F128" s="50"/>
+      <c r="G128" s="50"/>
+      <c r="H128" s="50"/>
+      <c r="I128" s="50"/>
     </row>
     <row r="129" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="38"/>
-      <c r="B129" s="52"/>
-      <c r="C129" s="52"/>
-      <c r="D129" s="52"/>
-      <c r="E129" s="52"/>
-      <c r="F129" s="52"/>
-      <c r="G129" s="52"/>
-      <c r="H129" s="52"/>
-      <c r="I129" s="52"/>
+      <c r="A129" s="1"/>
+      <c r="B129" s="50"/>
+      <c r="C129" s="50"/>
+      <c r="D129" s="50"/>
+      <c r="E129" s="50"/>
+      <c r="F129" s="50"/>
+      <c r="G129" s="50"/>
+      <c r="H129" s="50"/>
+      <c r="I129" s="50"/>
       <c r="M129" s="5"/>
     </row>
     <row r="130" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="38"/>
+      <c r="A130" s="1"/>
       <c r="B130" s="13"/>
       <c r="C130" s="13"/>
       <c r="D130" s="13"/>
@@ -3141,10 +3143,10 @@
       <c r="I130" s="13"/>
     </row>
     <row r="131" spans="1:13" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="30" t="s">
+      <c r="A131" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B131" s="31" t="s">
+      <c r="B131" s="34" t="s">
         <v>13</v>
       </c>
       <c r="D131" s="16"/>
@@ -3152,7 +3154,7 @@
       <c r="F131" s="16"/>
       <c r="G131" s="16"/>
       <c r="H131" s="16"/>
-      <c r="I131" s="30"/>
+      <c r="I131" s="33"/>
     </row>
     <row r="132" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="21" t="s">
@@ -3169,70 +3171,70 @@
       <c r="I132" s="21"/>
     </row>
     <row r="133" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="38"/>
-      <c r="B133" s="52" t="s">
+      <c r="A133" s="1"/>
+      <c r="B133" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C133" s="52"/>
-      <c r="D133" s="52"/>
-      <c r="E133" s="52"/>
-      <c r="F133" s="52"/>
-      <c r="G133" s="52"/>
-      <c r="H133" s="52"/>
-      <c r="I133" s="52"/>
+      <c r="C133" s="50"/>
+      <c r="D133" s="50"/>
+      <c r="E133" s="50"/>
+      <c r="F133" s="50"/>
+      <c r="G133" s="50"/>
+      <c r="H133" s="50"/>
+      <c r="I133" s="50"/>
     </row>
     <row r="134" spans="1:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="38"/>
-      <c r="B134" s="52"/>
-      <c r="C134" s="52"/>
-      <c r="D134" s="52"/>
-      <c r="E134" s="52"/>
-      <c r="F134" s="52"/>
-      <c r="G134" s="52"/>
-      <c r="H134" s="52"/>
-      <c r="I134" s="52"/>
+      <c r="A134" s="1"/>
+      <c r="B134" s="50"/>
+      <c r="C134" s="50"/>
+      <c r="D134" s="50"/>
+      <c r="E134" s="50"/>
+      <c r="F134" s="50"/>
+      <c r="G134" s="50"/>
+      <c r="H134" s="50"/>
+      <c r="I134" s="50"/>
     </row>
     <row r="135" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="38"/>
-      <c r="B135" s="63" t="s">
+      <c r="A135" s="1"/>
+      <c r="B135" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="C135" s="64"/>
-      <c r="D135" s="64"/>
-      <c r="E135" s="65"/>
-      <c r="F135" s="34" t="s">
+      <c r="C135" s="62"/>
+      <c r="D135" s="62"/>
+      <c r="E135" s="63"/>
+      <c r="F135" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="G135" s="34" t="s">
+      <c r="G135" s="39" t="s">
         <v>96</v>
       </c>
       <c r="H135" s="9"/>
     </row>
     <row r="136" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="38"/>
-      <c r="B136" s="66" t="s">
-        <v>188</v>
-      </c>
-      <c r="C136" s="67"/>
-      <c r="D136" s="67"/>
-      <c r="E136" s="68"/>
-      <c r="F136" s="50">
+      <c r="A136" s="1"/>
+      <c r="B136" s="64" t="s">
+        <v>189</v>
+      </c>
+      <c r="C136" s="65"/>
+      <c r="D136" s="65"/>
+      <c r="E136" s="66"/>
+      <c r="F136" s="31">
         <v>2000</v>
       </c>
-      <c r="G136" s="50">
+      <c r="G136" s="31">
         <v>2200</v>
       </c>
       <c r="H136" s="23"/>
       <c r="I136" s="7"/>
     </row>
     <row r="137" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="38"/>
-      <c r="B137" s="39"/>
-      <c r="C137" s="39"/>
-      <c r="D137" s="39"/>
-      <c r="E137" s="39"/>
-      <c r="F137" s="40"/>
-      <c r="G137" s="40"/>
+      <c r="A137" s="1"/>
+      <c r="B137" s="47"/>
+      <c r="C137" s="47"/>
+      <c r="D137" s="47"/>
+      <c r="E137" s="47"/>
+      <c r="F137" s="48"/>
+      <c r="G137" s="48"/>
       <c r="H137" s="23"/>
       <c r="I137" s="7"/>
     </row>
@@ -3251,42 +3253,42 @@
       <c r="H138" s="23"/>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A139" s="38"/>
-      <c r="B139" s="52" t="s">
+      <c r="A139" s="1"/>
+      <c r="B139" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C139" s="52"/>
-      <c r="D139" s="52"/>
-      <c r="E139" s="52"/>
-      <c r="F139" s="52"/>
-      <c r="G139" s="52"/>
-      <c r="H139" s="52"/>
-      <c r="I139" s="52"/>
+      <c r="C139" s="50"/>
+      <c r="D139" s="50"/>
+      <c r="E139" s="50"/>
+      <c r="F139" s="50"/>
+      <c r="G139" s="50"/>
+      <c r="H139" s="50"/>
+      <c r="I139" s="50"/>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="21"/>
-      <c r="B140" s="52"/>
-      <c r="C140" s="52"/>
-      <c r="D140" s="52"/>
-      <c r="E140" s="52"/>
-      <c r="F140" s="52"/>
-      <c r="G140" s="52"/>
-      <c r="H140" s="52"/>
-      <c r="I140" s="52"/>
+      <c r="B140" s="50"/>
+      <c r="C140" s="50"/>
+      <c r="D140" s="50"/>
+      <c r="E140" s="50"/>
+      <c r="F140" s="50"/>
+      <c r="G140" s="50"/>
+      <c r="H140" s="50"/>
+      <c r="I140" s="50"/>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="21"/>
-      <c r="B141" s="52"/>
-      <c r="C141" s="52"/>
-      <c r="D141" s="52"/>
-      <c r="E141" s="52"/>
-      <c r="F141" s="52"/>
-      <c r="G141" s="52"/>
-      <c r="H141" s="52"/>
-      <c r="I141" s="52"/>
+      <c r="B141" s="50"/>
+      <c r="C141" s="50"/>
+      <c r="D141" s="50"/>
+      <c r="E141" s="50"/>
+      <c r="F141" s="50"/>
+      <c r="G141" s="50"/>
+      <c r="H141" s="50"/>
+      <c r="I141" s="50"/>
     </row>
     <row r="142" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="38"/>
+      <c r="A142" s="1"/>
       <c r="B142" t="s">
         <v>16</v>
       </c>
@@ -3302,7 +3304,7 @@
       <c r="H142" s="24"/>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A143" s="38"/>
+      <c r="A143" s="1"/>
       <c r="B143" t="s">
         <v>132</v>
       </c>
@@ -3318,7 +3320,7 @@
       <c r="H143" s="24"/>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A144" s="38"/>
+      <c r="A144" s="1"/>
       <c r="B144" t="s">
         <v>133</v>
       </c>
@@ -3334,7 +3336,7 @@
       <c r="H144" s="24"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="38"/>
+      <c r="A145" s="1"/>
       <c r="E145" s="25"/>
       <c r="F145" s="25"/>
       <c r="H145" s="24"/>
@@ -3351,15 +3353,15 @@
       <c r="H146" s="24"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="38"/>
+      <c r="A147" s="1"/>
       <c r="B147" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C147" s="36"/>
-      <c r="D147" s="36"/>
-      <c r="E147" s="36"/>
-      <c r="F147" s="35"/>
-      <c r="G147" s="35"/>
+      <c r="C147" s="41"/>
+      <c r="D147" s="41"/>
+      <c r="E147" s="41"/>
+      <c r="F147" s="40"/>
+      <c r="G147" s="40"/>
       <c r="H147" s="23"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -3374,10 +3376,10 @@
       <c r="I148" s="17"/>
     </row>
     <row r="149" spans="1:9" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="30" t="s">
+      <c r="A149" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B149" s="31" t="s">
+      <c r="B149" s="34" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3400,7 +3402,7 @@
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="38"/>
+      <c r="A152" s="1"/>
       <c r="B152" s="12" t="s">
         <v>45</v>
       </c>
@@ -3409,13 +3411,13 @@
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" s="38"/>
+      <c r="A153" s="1"/>
       <c r="B153" s="12" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="38"/>
+      <c r="A154" s="1"/>
       <c r="B154" s="12" t="s">
         <v>46</v>
       </c>
@@ -3424,700 +3426,700 @@
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="38"/>
+      <c r="A155" s="1"/>
       <c r="B155" s="12"/>
       <c r="F155" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A156" s="38"/>
+      <c r="A156" s="1"/>
       <c r="B156" s="12"/>
       <c r="F156" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A157" s="38"/>
+      <c r="A157" s="1"/>
       <c r="B157" s="12"/>
       <c r="F157" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158" s="38"/>
+      <c r="A158" s="1"/>
       <c r="B158" s="12"/>
       <c r="F158" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A159" s="38"/>
+      <c r="A159" s="1"/>
       <c r="B159" s="12"/>
       <c r="F159" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="38"/>
+      <c r="A160" s="1"/>
       <c r="B160" s="12" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="38"/>
+      <c r="A161" s="1"/>
       <c r="B161" s="10"/>
     </row>
     <row r="162" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="38"/>
+      <c r="A162" s="1"/>
       <c r="B162" s="10"/>
     </row>
     <row r="163" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="38"/>
+      <c r="A163" s="1"/>
       <c r="B163" s="10"/>
     </row>
     <row r="164" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="38"/>
+      <c r="A164" s="1"/>
       <c r="B164" s="10"/>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A165" s="38"/>
+      <c r="A165" s="1"/>
       <c r="B165" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F165" s="60">
+      <c r="F165" s="58">
         <f ca="1">TODAY()</f>
-        <v>45365</v>
-      </c>
-      <c r="G165" s="60"/>
+        <v>45351</v>
+      </c>
+      <c r="G165" s="58"/>
     </row>
     <row r="166" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="47" t="s">
+      <c r="A166" s="36" t="s">
         <v>50</v>
       </c>
       <c r="C166" s="6"/>
       <c r="I166" s="21"/>
     </row>
     <row r="167" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="48">
-        <v>1</v>
-      </c>
-      <c r="B167" s="59" t="s">
+      <c r="A167" s="8">
+        <v>1</v>
+      </c>
+      <c r="B167" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="C167" s="59"/>
-      <c r="D167" s="59"/>
-      <c r="E167" s="59"/>
-      <c r="F167" s="59"/>
-      <c r="G167" s="59"/>
-      <c r="H167" s="59"/>
-      <c r="I167" s="59"/>
+      <c r="C167" s="57"/>
+      <c r="D167" s="57"/>
+      <c r="E167" s="57"/>
+      <c r="F167" s="57"/>
+      <c r="G167" s="57"/>
+      <c r="H167" s="57"/>
+      <c r="I167" s="57"/>
     </row>
     <row r="168" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="48">
+      <c r="A168" s="8">
         <v>2</v>
       </c>
-      <c r="B168" s="59" t="s">
+      <c r="B168" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="C168" s="59"/>
-      <c r="D168" s="59"/>
-      <c r="E168" s="59"/>
-      <c r="F168" s="59"/>
-      <c r="G168" s="59"/>
-      <c r="H168" s="59"/>
-      <c r="I168" s="59"/>
+      <c r="C168" s="57"/>
+      <c r="D168" s="57"/>
+      <c r="E168" s="57"/>
+      <c r="F168" s="57"/>
+      <c r="G168" s="57"/>
+      <c r="H168" s="57"/>
+      <c r="I168" s="57"/>
     </row>
     <row r="169" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="48">
+      <c r="A169" s="8">
         <v>3</v>
       </c>
-      <c r="B169" s="59" t="s">
+      <c r="B169" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="C169" s="59"/>
-      <c r="D169" s="59"/>
-      <c r="E169" s="59"/>
-      <c r="F169" s="59"/>
-      <c r="G169" s="59"/>
-      <c r="H169" s="59"/>
-      <c r="I169" s="59"/>
+      <c r="C169" s="57"/>
+      <c r="D169" s="57"/>
+      <c r="E169" s="57"/>
+      <c r="F169" s="57"/>
+      <c r="G169" s="57"/>
+      <c r="H169" s="57"/>
+      <c r="I169" s="57"/>
     </row>
     <row r="170" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="48">
+      <c r="A170" s="8">
         <v>4</v>
       </c>
-      <c r="B170" s="59" t="s">
+      <c r="B170" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="C170" s="59"/>
-      <c r="D170" s="59"/>
-      <c r="E170" s="59"/>
-      <c r="F170" s="59"/>
-      <c r="G170" s="59"/>
-      <c r="H170" s="59"/>
-      <c r="I170" s="59"/>
+      <c r="C170" s="57"/>
+      <c r="D170" s="57"/>
+      <c r="E170" s="57"/>
+      <c r="F170" s="57"/>
+      <c r="G170" s="57"/>
+      <c r="H170" s="57"/>
+      <c r="I170" s="57"/>
     </row>
     <row r="171" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="48">
+      <c r="A171" s="8">
         <v>5</v>
       </c>
-      <c r="B171" s="59" t="s">
+      <c r="B171" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="C171" s="59"/>
-      <c r="D171" s="59"/>
-      <c r="E171" s="59"/>
-      <c r="F171" s="59"/>
-      <c r="G171" s="59"/>
-      <c r="H171" s="59"/>
-      <c r="I171" s="59"/>
+      <c r="C171" s="57"/>
+      <c r="D171" s="57"/>
+      <c r="E171" s="57"/>
+      <c r="F171" s="57"/>
+      <c r="G171" s="57"/>
+      <c r="H171" s="57"/>
+      <c r="I171" s="57"/>
     </row>
     <row r="172" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="48"/>
-      <c r="B172" s="59" t="s">
+      <c r="A172" s="8"/>
+      <c r="B172" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="C172" s="59"/>
-      <c r="D172" s="59"/>
-      <c r="E172" s="59"/>
-      <c r="F172" s="59"/>
-      <c r="G172" s="59"/>
-      <c r="H172" s="59"/>
-      <c r="I172" s="59"/>
+      <c r="C172" s="57"/>
+      <c r="D172" s="57"/>
+      <c r="E172" s="57"/>
+      <c r="F172" s="57"/>
+      <c r="G172" s="57"/>
+      <c r="H172" s="57"/>
+      <c r="I172" s="57"/>
     </row>
     <row r="173" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="48"/>
-      <c r="B173" s="59" t="s">
+      <c r="A173" s="8"/>
+      <c r="B173" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="C173" s="59"/>
-      <c r="D173" s="59"/>
-      <c r="E173" s="59"/>
-      <c r="F173" s="59"/>
-      <c r="G173" s="59"/>
-      <c r="H173" s="59"/>
-      <c r="I173" s="59"/>
+      <c r="C173" s="57"/>
+      <c r="D173" s="57"/>
+      <c r="E173" s="57"/>
+      <c r="F173" s="57"/>
+      <c r="G173" s="57"/>
+      <c r="H173" s="57"/>
+      <c r="I173" s="57"/>
     </row>
     <row r="174" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="48"/>
-      <c r="B174" s="59" t="s">
+      <c r="A174" s="8"/>
+      <c r="B174" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="C174" s="59"/>
-      <c r="D174" s="59"/>
-      <c r="E174" s="59"/>
-      <c r="F174" s="59"/>
-      <c r="G174" s="59"/>
-      <c r="H174" s="59"/>
-      <c r="I174" s="59"/>
+      <c r="C174" s="57"/>
+      <c r="D174" s="57"/>
+      <c r="E174" s="57"/>
+      <c r="F174" s="57"/>
+      <c r="G174" s="57"/>
+      <c r="H174" s="57"/>
+      <c r="I174" s="57"/>
     </row>
     <row r="175" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="48">
+      <c r="A175" s="8">
         <v>6</v>
       </c>
-      <c r="B175" s="59" t="s">
+      <c r="B175" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="C175" s="59"/>
-      <c r="D175" s="59"/>
-      <c r="E175" s="59"/>
-      <c r="F175" s="59"/>
-      <c r="G175" s="59"/>
-      <c r="H175" s="59"/>
-      <c r="I175" s="59"/>
+      <c r="C175" s="57"/>
+      <c r="D175" s="57"/>
+      <c r="E175" s="57"/>
+      <c r="F175" s="57"/>
+      <c r="G175" s="57"/>
+      <c r="H175" s="57"/>
+      <c r="I175" s="57"/>
     </row>
     <row r="176" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="48"/>
-      <c r="B176" s="59" t="s">
+      <c r="A176" s="8"/>
+      <c r="B176" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="C176" s="59"/>
-      <c r="D176" s="59"/>
-      <c r="E176" s="59"/>
-      <c r="F176" s="59"/>
-      <c r="G176" s="59"/>
-      <c r="H176" s="59"/>
-      <c r="I176" s="59"/>
+      <c r="C176" s="57"/>
+      <c r="D176" s="57"/>
+      <c r="E176" s="57"/>
+      <c r="F176" s="57"/>
+      <c r="G176" s="57"/>
+      <c r="H176" s="57"/>
+      <c r="I176" s="57"/>
     </row>
     <row r="177" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="48"/>
-      <c r="B177" s="59" t="s">
+      <c r="A177" s="8"/>
+      <c r="B177" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="C177" s="59"/>
-      <c r="D177" s="59"/>
-      <c r="E177" s="59"/>
-      <c r="F177" s="59"/>
-      <c r="G177" s="59"/>
-      <c r="H177" s="59"/>
-      <c r="I177" s="59"/>
+      <c r="C177" s="57"/>
+      <c r="D177" s="57"/>
+      <c r="E177" s="57"/>
+      <c r="F177" s="57"/>
+      <c r="G177" s="57"/>
+      <c r="H177" s="57"/>
+      <c r="I177" s="57"/>
     </row>
     <row r="178" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="48">
+      <c r="A178" s="8">
         <v>7</v>
       </c>
-      <c r="B178" s="59" t="s">
+      <c r="B178" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="C178" s="59"/>
-      <c r="D178" s="59"/>
-      <c r="E178" s="59"/>
-      <c r="F178" s="59"/>
-      <c r="G178" s="59"/>
-      <c r="H178" s="59"/>
-      <c r="I178" s="59"/>
+      <c r="C178" s="57"/>
+      <c r="D178" s="57"/>
+      <c r="E178" s="57"/>
+      <c r="F178" s="57"/>
+      <c r="G178" s="57"/>
+      <c r="H178" s="57"/>
+      <c r="I178" s="57"/>
     </row>
     <row r="179" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="48">
+      <c r="A179" s="8">
         <v>8</v>
       </c>
-      <c r="B179" s="59" t="s">
+      <c r="B179" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="C179" s="59"/>
-      <c r="D179" s="59"/>
-      <c r="E179" s="59"/>
-      <c r="F179" s="59"/>
-      <c r="G179" s="59"/>
-      <c r="H179" s="59"/>
-      <c r="I179" s="59"/>
+      <c r="C179" s="57"/>
+      <c r="D179" s="57"/>
+      <c r="E179" s="57"/>
+      <c r="F179" s="57"/>
+      <c r="G179" s="57"/>
+      <c r="H179" s="57"/>
+      <c r="I179" s="57"/>
     </row>
     <row r="180" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="48"/>
-      <c r="B180" s="59" t="s">
+      <c r="A180" s="8"/>
+      <c r="B180" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="C180" s="59"/>
-      <c r="D180" s="59"/>
-      <c r="E180" s="59"/>
-      <c r="F180" s="59"/>
-      <c r="G180" s="59"/>
-      <c r="H180" s="59"/>
-      <c r="I180" s="59"/>
+      <c r="C180" s="57"/>
+      <c r="D180" s="57"/>
+      <c r="E180" s="57"/>
+      <c r="F180" s="57"/>
+      <c r="G180" s="57"/>
+      <c r="H180" s="57"/>
+      <c r="I180" s="57"/>
     </row>
     <row r="181" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="48"/>
-      <c r="B181" s="59" t="s">
+      <c r="A181" s="8"/>
+      <c r="B181" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="C181" s="59"/>
-      <c r="D181" s="59"/>
-      <c r="E181" s="59"/>
-      <c r="F181" s="59"/>
-      <c r="G181" s="59"/>
-      <c r="H181" s="59"/>
-      <c r="I181" s="59"/>
+      <c r="C181" s="57"/>
+      <c r="D181" s="57"/>
+      <c r="E181" s="57"/>
+      <c r="F181" s="57"/>
+      <c r="G181" s="57"/>
+      <c r="H181" s="57"/>
+      <c r="I181" s="57"/>
     </row>
     <row r="182" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="48"/>
-      <c r="B182" s="59" t="s">
+      <c r="A182" s="8"/>
+      <c r="B182" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="C182" s="59"/>
-      <c r="D182" s="59"/>
-      <c r="E182" s="59"/>
-      <c r="F182" s="59"/>
-      <c r="G182" s="59"/>
-      <c r="H182" s="59"/>
-      <c r="I182" s="59"/>
+      <c r="C182" s="57"/>
+      <c r="D182" s="57"/>
+      <c r="E182" s="57"/>
+      <c r="F182" s="57"/>
+      <c r="G182" s="57"/>
+      <c r="H182" s="57"/>
+      <c r="I182" s="57"/>
     </row>
     <row r="183" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="48"/>
-      <c r="B183" s="59" t="s">
+      <c r="A183" s="8"/>
+      <c r="B183" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="C183" s="59"/>
-      <c r="D183" s="59"/>
-      <c r="E183" s="59"/>
-      <c r="F183" s="59"/>
-      <c r="G183" s="59"/>
-      <c r="H183" s="59"/>
-      <c r="I183" s="59"/>
+      <c r="C183" s="57"/>
+      <c r="D183" s="57"/>
+      <c r="E183" s="57"/>
+      <c r="F183" s="57"/>
+      <c r="G183" s="57"/>
+      <c r="H183" s="57"/>
+      <c r="I183" s="57"/>
     </row>
     <row r="184" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="48"/>
-      <c r="B184" s="59" t="s">
+      <c r="A184" s="8"/>
+      <c r="B184" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="C184" s="59"/>
-      <c r="D184" s="59"/>
-      <c r="E184" s="59"/>
-      <c r="F184" s="59"/>
-      <c r="G184" s="59"/>
-      <c r="H184" s="59"/>
-      <c r="I184" s="59"/>
+      <c r="C184" s="57"/>
+      <c r="D184" s="57"/>
+      <c r="E184" s="57"/>
+      <c r="F184" s="57"/>
+      <c r="G184" s="57"/>
+      <c r="H184" s="57"/>
+      <c r="I184" s="57"/>
     </row>
     <row r="185" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="48"/>
-      <c r="B185" s="59" t="s">
+      <c r="A185" s="8"/>
+      <c r="B185" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="C185" s="59"/>
-      <c r="D185" s="59"/>
-      <c r="E185" s="59"/>
-      <c r="F185" s="59"/>
-      <c r="G185" s="59"/>
-      <c r="H185" s="59"/>
-      <c r="I185" s="59"/>
+      <c r="C185" s="57"/>
+      <c r="D185" s="57"/>
+      <c r="E185" s="57"/>
+      <c r="F185" s="57"/>
+      <c r="G185" s="57"/>
+      <c r="H185" s="57"/>
+      <c r="I185" s="57"/>
     </row>
     <row r="186" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="48">
+      <c r="A186" s="8">
         <v>9</v>
       </c>
-      <c r="B186" s="59" t="s">
+      <c r="B186" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="C186" s="59"/>
-      <c r="D186" s="59"/>
-      <c r="E186" s="59"/>
-      <c r="F186" s="59"/>
-      <c r="G186" s="59"/>
-      <c r="H186" s="59"/>
-      <c r="I186" s="59"/>
+      <c r="C186" s="57"/>
+      <c r="D186" s="57"/>
+      <c r="E186" s="57"/>
+      <c r="F186" s="57"/>
+      <c r="G186" s="57"/>
+      <c r="H186" s="57"/>
+      <c r="I186" s="57"/>
     </row>
     <row r="187" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="48">
+      <c r="A187" s="8">
         <v>10</v>
       </c>
-      <c r="B187" s="59" t="s">
+      <c r="B187" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="C187" s="59"/>
-      <c r="D187" s="59"/>
-      <c r="E187" s="59"/>
-      <c r="F187" s="59"/>
-      <c r="G187" s="59"/>
-      <c r="H187" s="59"/>
-      <c r="I187" s="59"/>
+      <c r="C187" s="57"/>
+      <c r="D187" s="57"/>
+      <c r="E187" s="57"/>
+      <c r="F187" s="57"/>
+      <c r="G187" s="57"/>
+      <c r="H187" s="57"/>
+      <c r="I187" s="57"/>
     </row>
     <row r="188" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="48"/>
-      <c r="B188" s="59" t="s">
+      <c r="A188" s="8"/>
+      <c r="B188" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="C188" s="59"/>
-      <c r="D188" s="59"/>
-      <c r="E188" s="59"/>
-      <c r="F188" s="59"/>
-      <c r="G188" s="59"/>
-      <c r="H188" s="59"/>
-      <c r="I188" s="59"/>
+      <c r="C188" s="57"/>
+      <c r="D188" s="57"/>
+      <c r="E188" s="57"/>
+      <c r="F188" s="57"/>
+      <c r="G188" s="57"/>
+      <c r="H188" s="57"/>
+      <c r="I188" s="57"/>
     </row>
     <row r="189" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="48"/>
-      <c r="B189" s="59" t="s">
+      <c r="A189" s="8"/>
+      <c r="B189" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="C189" s="59"/>
-      <c r="D189" s="59"/>
-      <c r="E189" s="59"/>
-      <c r="F189" s="59"/>
-      <c r="G189" s="59"/>
-      <c r="H189" s="59"/>
-      <c r="I189" s="59"/>
+      <c r="C189" s="57"/>
+      <c r="D189" s="57"/>
+      <c r="E189" s="57"/>
+      <c r="F189" s="57"/>
+      <c r="G189" s="57"/>
+      <c r="H189" s="57"/>
+      <c r="I189" s="57"/>
     </row>
     <row r="190" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="48"/>
-      <c r="B190" s="59" t="s">
+      <c r="A190" s="8"/>
+      <c r="B190" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="C190" s="59"/>
-      <c r="D190" s="59"/>
-      <c r="E190" s="59"/>
-      <c r="F190" s="59"/>
-      <c r="G190" s="59"/>
-      <c r="H190" s="59"/>
-      <c r="I190" s="59"/>
+      <c r="C190" s="57"/>
+      <c r="D190" s="57"/>
+      <c r="E190" s="57"/>
+      <c r="F190" s="57"/>
+      <c r="G190" s="57"/>
+      <c r="H190" s="57"/>
+      <c r="I190" s="57"/>
     </row>
     <row r="191" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="48"/>
-      <c r="B191" s="59" t="s">
+      <c r="A191" s="8"/>
+      <c r="B191" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="C191" s="59"/>
-      <c r="D191" s="59"/>
-      <c r="E191" s="59"/>
-      <c r="F191" s="59"/>
-      <c r="G191" s="59"/>
-      <c r="H191" s="59"/>
-      <c r="I191" s="59"/>
+      <c r="C191" s="57"/>
+      <c r="D191" s="57"/>
+      <c r="E191" s="57"/>
+      <c r="F191" s="57"/>
+      <c r="G191" s="57"/>
+      <c r="H191" s="57"/>
+      <c r="I191" s="57"/>
     </row>
     <row r="192" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="48">
+      <c r="A192" s="8">
         <v>11</v>
       </c>
-      <c r="B192" s="59" t="s">
+      <c r="B192" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="C192" s="59"/>
-      <c r="D192" s="59"/>
-      <c r="E192" s="59"/>
-      <c r="F192" s="59"/>
-      <c r="G192" s="59"/>
-      <c r="H192" s="59"/>
-      <c r="I192" s="59"/>
+      <c r="C192" s="57"/>
+      <c r="D192" s="57"/>
+      <c r="E192" s="57"/>
+      <c r="F192" s="57"/>
+      <c r="G192" s="57"/>
+      <c r="H192" s="57"/>
+      <c r="I192" s="57"/>
     </row>
     <row r="193" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="48"/>
-      <c r="B193" s="59" t="s">
+      <c r="A193" s="8"/>
+      <c r="B193" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="C193" s="59"/>
-      <c r="D193" s="59"/>
-      <c r="E193" s="59"/>
-      <c r="F193" s="59"/>
-      <c r="G193" s="59"/>
-      <c r="H193" s="59"/>
-      <c r="I193" s="59"/>
+      <c r="C193" s="57"/>
+      <c r="D193" s="57"/>
+      <c r="E193" s="57"/>
+      <c r="F193" s="57"/>
+      <c r="G193" s="57"/>
+      <c r="H193" s="57"/>
+      <c r="I193" s="57"/>
     </row>
     <row r="194" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="48"/>
-      <c r="B194" s="59" t="s">
+      <c r="A194" s="8"/>
+      <c r="B194" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="C194" s="59"/>
-      <c r="D194" s="59"/>
-      <c r="E194" s="59"/>
-      <c r="F194" s="59"/>
-      <c r="G194" s="59"/>
-      <c r="H194" s="59"/>
-      <c r="I194" s="59"/>
+      <c r="C194" s="57"/>
+      <c r="D194" s="57"/>
+      <c r="E194" s="57"/>
+      <c r="F194" s="57"/>
+      <c r="G194" s="57"/>
+      <c r="H194" s="57"/>
+      <c r="I194" s="57"/>
     </row>
     <row r="195" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="48">
+      <c r="A195" s="8">
         <v>12</v>
       </c>
-      <c r="B195" s="59" t="s">
+      <c r="B195" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="C195" s="59"/>
-      <c r="D195" s="59"/>
-      <c r="E195" s="59"/>
-      <c r="F195" s="59"/>
-      <c r="G195" s="59"/>
-      <c r="H195" s="59"/>
-      <c r="I195" s="59"/>
+      <c r="C195" s="57"/>
+      <c r="D195" s="57"/>
+      <c r="E195" s="57"/>
+      <c r="F195" s="57"/>
+      <c r="G195" s="57"/>
+      <c r="H195" s="57"/>
+      <c r="I195" s="57"/>
     </row>
     <row r="196" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="48"/>
-      <c r="B196" s="59" t="s">
+      <c r="A196" s="8"/>
+      <c r="B196" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="C196" s="59"/>
-      <c r="D196" s="59"/>
-      <c r="E196" s="59"/>
-      <c r="F196" s="59"/>
-      <c r="G196" s="59"/>
-      <c r="H196" s="59"/>
-      <c r="I196" s="59"/>
+      <c r="C196" s="57"/>
+      <c r="D196" s="57"/>
+      <c r="E196" s="57"/>
+      <c r="F196" s="57"/>
+      <c r="G196" s="57"/>
+      <c r="H196" s="57"/>
+      <c r="I196" s="57"/>
     </row>
     <row r="197" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="48"/>
-      <c r="B197" s="59" t="s">
+      <c r="A197" s="8"/>
+      <c r="B197" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="C197" s="59"/>
-      <c r="D197" s="59"/>
-      <c r="E197" s="59"/>
-      <c r="F197" s="59"/>
-      <c r="G197" s="59"/>
-      <c r="H197" s="59"/>
-      <c r="I197" s="59"/>
+      <c r="C197" s="57"/>
+      <c r="D197" s="57"/>
+      <c r="E197" s="57"/>
+      <c r="F197" s="57"/>
+      <c r="G197" s="57"/>
+      <c r="H197" s="57"/>
+      <c r="I197" s="57"/>
     </row>
     <row r="198" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="48"/>
-      <c r="B198" s="59" t="s">
+      <c r="A198" s="8"/>
+      <c r="B198" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C198" s="59"/>
-      <c r="D198" s="59"/>
-      <c r="E198" s="59"/>
-      <c r="F198" s="59"/>
-      <c r="G198" s="59"/>
-      <c r="H198" s="59"/>
-      <c r="I198" s="59"/>
+      <c r="C198" s="57"/>
+      <c r="D198" s="57"/>
+      <c r="E198" s="57"/>
+      <c r="F198" s="57"/>
+      <c r="G198" s="57"/>
+      <c r="H198" s="57"/>
+      <c r="I198" s="57"/>
     </row>
     <row r="199" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="48"/>
-      <c r="B199" s="59" t="s">
+      <c r="A199" s="8"/>
+      <c r="B199" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C199" s="59"/>
-      <c r="D199" s="59"/>
-      <c r="E199" s="59"/>
-      <c r="F199" s="59"/>
-      <c r="G199" s="59"/>
-      <c r="H199" s="59"/>
-      <c r="I199" s="59"/>
+      <c r="C199" s="57"/>
+      <c r="D199" s="57"/>
+      <c r="E199" s="57"/>
+      <c r="F199" s="57"/>
+      <c r="G199" s="57"/>
+      <c r="H199" s="57"/>
+      <c r="I199" s="57"/>
     </row>
     <row r="200" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="48">
+      <c r="A200" s="8">
         <v>13</v>
       </c>
-      <c r="B200" s="59" t="s">
+      <c r="B200" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C200" s="59"/>
-      <c r="D200" s="59"/>
-      <c r="E200" s="59"/>
-      <c r="F200" s="59"/>
-      <c r="G200" s="59"/>
-      <c r="H200" s="59"/>
-      <c r="I200" s="59"/>
+      <c r="C200" s="57"/>
+      <c r="D200" s="57"/>
+      <c r="E200" s="57"/>
+      <c r="F200" s="57"/>
+      <c r="G200" s="57"/>
+      <c r="H200" s="57"/>
+      <c r="I200" s="57"/>
     </row>
     <row r="201" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="48"/>
-      <c r="B201" s="59" t="s">
+      <c r="A201" s="8"/>
+      <c r="B201" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="C201" s="59"/>
-      <c r="D201" s="59"/>
-      <c r="E201" s="59"/>
-      <c r="F201" s="59"/>
-      <c r="G201" s="59"/>
-      <c r="H201" s="59"/>
-      <c r="I201" s="59"/>
+      <c r="C201" s="57"/>
+      <c r="D201" s="57"/>
+      <c r="E201" s="57"/>
+      <c r="F201" s="57"/>
+      <c r="G201" s="57"/>
+      <c r="H201" s="57"/>
+      <c r="I201" s="57"/>
     </row>
     <row r="202" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="48"/>
-      <c r="B202" s="59" t="s">
+      <c r="A202" s="8"/>
+      <c r="B202" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="C202" s="59"/>
-      <c r="D202" s="59"/>
-      <c r="E202" s="59"/>
-      <c r="F202" s="59"/>
-      <c r="G202" s="59"/>
-      <c r="H202" s="59"/>
-      <c r="I202" s="59"/>
+      <c r="C202" s="57"/>
+      <c r="D202" s="57"/>
+      <c r="E202" s="57"/>
+      <c r="F202" s="57"/>
+      <c r="G202" s="57"/>
+      <c r="H202" s="57"/>
+      <c r="I202" s="57"/>
     </row>
     <row r="203" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="48">
+      <c r="A203" s="8">
         <v>14</v>
       </c>
-      <c r="B203" s="59" t="s">
+      <c r="B203" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="C203" s="59"/>
-      <c r="D203" s="59"/>
-      <c r="E203" s="59"/>
-      <c r="F203" s="59"/>
-      <c r="G203" s="59"/>
-      <c r="H203" s="59"/>
-      <c r="I203" s="59"/>
+      <c r="C203" s="57"/>
+      <c r="D203" s="57"/>
+      <c r="E203" s="57"/>
+      <c r="F203" s="57"/>
+      <c r="G203" s="57"/>
+      <c r="H203" s="57"/>
+      <c r="I203" s="57"/>
     </row>
     <row r="204" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="48"/>
-      <c r="B204" s="59" t="s">
+      <c r="A204" s="8"/>
+      <c r="B204" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="C204" s="59"/>
-      <c r="D204" s="59"/>
-      <c r="E204" s="59"/>
-      <c r="F204" s="59"/>
-      <c r="G204" s="59"/>
-      <c r="H204" s="59"/>
-      <c r="I204" s="59"/>
+      <c r="C204" s="57"/>
+      <c r="D204" s="57"/>
+      <c r="E204" s="57"/>
+      <c r="F204" s="57"/>
+      <c r="G204" s="57"/>
+      <c r="H204" s="57"/>
+      <c r="I204" s="57"/>
     </row>
     <row r="205" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="48"/>
-      <c r="B205" s="59" t="s">
+      <c r="A205" s="8"/>
+      <c r="B205" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C205" s="59"/>
-      <c r="D205" s="59"/>
-      <c r="E205" s="59"/>
-      <c r="F205" s="59"/>
-      <c r="G205" s="59"/>
-      <c r="H205" s="59"/>
-      <c r="I205" s="59"/>
+      <c r="C205" s="57"/>
+      <c r="D205" s="57"/>
+      <c r="E205" s="57"/>
+      <c r="F205" s="57"/>
+      <c r="G205" s="57"/>
+      <c r="H205" s="57"/>
+      <c r="I205" s="57"/>
     </row>
     <row r="206" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="48"/>
-      <c r="B206" s="59" t="s">
+      <c r="A206" s="8"/>
+      <c r="B206" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="C206" s="59"/>
-      <c r="D206" s="59"/>
-      <c r="E206" s="59"/>
-      <c r="F206" s="59"/>
-      <c r="G206" s="59"/>
-      <c r="H206" s="59"/>
-      <c r="I206" s="59"/>
+      <c r="C206" s="57"/>
+      <c r="D206" s="57"/>
+      <c r="E206" s="57"/>
+      <c r="F206" s="57"/>
+      <c r="G206" s="57"/>
+      <c r="H206" s="57"/>
+      <c r="I206" s="57"/>
     </row>
     <row r="207" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="48"/>
-      <c r="B207" s="59" t="s">
+      <c r="A207" s="8"/>
+      <c r="B207" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="C207" s="59"/>
-      <c r="D207" s="59"/>
-      <c r="E207" s="59"/>
-      <c r="F207" s="59"/>
-      <c r="G207" s="59"/>
-      <c r="H207" s="59"/>
-      <c r="I207" s="59"/>
+      <c r="C207" s="57"/>
+      <c r="D207" s="57"/>
+      <c r="E207" s="57"/>
+      <c r="F207" s="57"/>
+      <c r="G207" s="57"/>
+      <c r="H207" s="57"/>
+      <c r="I207" s="57"/>
     </row>
     <row r="208" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="48">
+      <c r="A208" s="8">
         <v>15</v>
       </c>
-      <c r="B208" s="59" t="s">
+      <c r="B208" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="C208" s="59"/>
-      <c r="D208" s="59"/>
-      <c r="E208" s="59"/>
-      <c r="F208" s="59"/>
-      <c r="G208" s="59"/>
-      <c r="H208" s="59"/>
-      <c r="I208" s="59"/>
+      <c r="C208" s="57"/>
+      <c r="D208" s="57"/>
+      <c r="E208" s="57"/>
+      <c r="F208" s="57"/>
+      <c r="G208" s="57"/>
+      <c r="H208" s="57"/>
+      <c r="I208" s="57"/>
     </row>
     <row r="209" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="48">
+      <c r="A209" s="8">
         <v>16</v>
       </c>
-      <c r="B209" s="59" t="s">
+      <c r="B209" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="C209" s="59"/>
-      <c r="D209" s="59"/>
-      <c r="E209" s="59"/>
-      <c r="F209" s="59"/>
-      <c r="G209" s="59"/>
-      <c r="H209" s="59"/>
-      <c r="I209" s="59"/>
+      <c r="C209" s="57"/>
+      <c r="D209" s="57"/>
+      <c r="E209" s="57"/>
+      <c r="F209" s="57"/>
+      <c r="G209" s="57"/>
+      <c r="H209" s="57"/>
+      <c r="I209" s="57"/>
     </row>
     <row r="210" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="48">
+      <c r="A210" s="8">
         <v>17</v>
       </c>
-      <c r="B210" s="59" t="s">
+      <c r="B210" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="C210" s="59"/>
-      <c r="D210" s="59"/>
-      <c r="E210" s="59"/>
-      <c r="F210" s="59"/>
-      <c r="G210" s="59"/>
-      <c r="H210" s="59"/>
-      <c r="I210" s="59"/>
+      <c r="C210" s="57"/>
+      <c r="D210" s="57"/>
+      <c r="E210" s="57"/>
+      <c r="F210" s="57"/>
+      <c r="G210" s="57"/>
+      <c r="H210" s="57"/>
+      <c r="I210" s="57"/>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A211" s="49"/>
+      <c r="A211" s="27"/>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A212" s="49"/>
+      <c r="A212" s="27"/>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A213" s="49"/>
+      <c r="A213" s="27"/>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A214" s="49"/>
+      <c r="A214" s="27"/>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A215" s="49"/>
+      <c r="A215" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="81">
